--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/1_TMA/Mark Input Sheet ANL 252 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/1_TMA/Mark Input Sheet ANL 252 2021.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\1_TMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\ANL252_Python_4_Biz\3_Lecturer\1_TMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E598C5A7-0640-4D8A-A7BD-03CB23D75EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="732"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
     <sheet name="Marks" sheetId="3" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sorted" sheetId="4" r:id="rId3"/>
+    <sheet name="Example" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sorted!$A$1:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="151">
   <si>
     <t>Mark</t>
   </si>
@@ -497,7 +500,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -903,7 +906,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1033,6 +1036,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1068,7 +1104,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1107,7 +1143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1240,7 +1275,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1398,7 +1433,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1569,7 +1604,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -2832,7 +2867,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2903,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2963,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3037,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{945ECE74-9661-4E17-859A-F1CD2A2E0D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945ECE74-9661-4E17-859A-F1CD2A2E0D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3187,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,10 +3472,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -4168,11 +4203,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4181,11 +4216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5628,13 +5663,1472 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M34"/>
+  <autoFilter ref="A1:M34" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92528933-9467-4534-BA19-DA91A3203F0B}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="13.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="27"/>
+    <col min="14" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42">
+        <v>8</v>
+      </c>
+      <c r="F2" s="42">
+        <v>2</v>
+      </c>
+      <c r="G2" s="42">
+        <v>6</v>
+      </c>
+      <c r="H2" s="42">
+        <v>2</v>
+      </c>
+      <c r="I2" s="42">
+        <v>4</v>
+      </c>
+      <c r="J2" s="42">
+        <v>3</v>
+      </c>
+      <c r="K2" s="43">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
+        <f>SUM(D2:K2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <f>2+2+1+1+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="32">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32">
+        <v>7</v>
+      </c>
+      <c r="H3" s="32">
+        <v>9</v>
+      </c>
+      <c r="I3" s="32">
+        <f>1+6+2+2+2</f>
+        <v>13</v>
+      </c>
+      <c r="J3" s="32">
+        <v>5</v>
+      </c>
+      <c r="K3" s="38">
+        <f>1+1+1+1+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="39">
+        <f>SUM(D3:K3)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <f>2+2+1+1+2+2+2+2</f>
+        <v>14</v>
+      </c>
+      <c r="F4" s="32">
+        <v>4</v>
+      </c>
+      <c r="G4" s="32">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <f>1+2+1+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="32">
+        <v>6</v>
+      </c>
+      <c r="K4" s="38">
+        <v>15</v>
+      </c>
+      <c r="L4" s="39">
+        <f>SUM(D4:K4)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="53">
+        <v>1</v>
+      </c>
+      <c r="E5" s="55">
+        <v>15</v>
+      </c>
+      <c r="F5" s="55">
+        <v>4</v>
+      </c>
+      <c r="G5" s="55">
+        <f>1+6+1+5+2</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="55">
+        <f>2+ 3 +4 +1</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="55">
+        <f>1+9+1+1+3+3+1+1+1</f>
+        <v>21</v>
+      </c>
+      <c r="J5" s="55">
+        <v>12</v>
+      </c>
+      <c r="K5" s="57">
+        <f>1+2+1+2+1+2+2</f>
+        <v>11</v>
+      </c>
+      <c r="L5" s="62">
+        <f>SUM(D5:K5)</f>
+        <v>89</v>
+      </c>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="37">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <f>2+2+1+1+2+1+1+1+1</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="32">
+        <v>4</v>
+      </c>
+      <c r="G6" s="32">
+        <v>12</v>
+      </c>
+      <c r="H6" s="32">
+        <v>9</v>
+      </c>
+      <c r="I6" s="32">
+        <f>1+8+2+2+2+1</f>
+        <v>16</v>
+      </c>
+      <c r="J6" s="32">
+        <v>5</v>
+      </c>
+      <c r="K6" s="38">
+        <f>1+3+1+3+1</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="39">
+        <f>SUM(D6:K6)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <f>1+1+1+1+2+2+2+2+1</f>
+        <v>13</v>
+      </c>
+      <c r="F7" s="32">
+        <v>4</v>
+      </c>
+      <c r="G7" s="32">
+        <v>14</v>
+      </c>
+      <c r="H7" s="32">
+        <v>9</v>
+      </c>
+      <c r="I7" s="32">
+        <f>1+7+1+1+4+2+2</f>
+        <v>18</v>
+      </c>
+      <c r="J7" s="32">
+        <v>12</v>
+      </c>
+      <c r="K7" s="38">
+        <f>1+2+1+1+1+2+1</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="39">
+        <f>SUM(D7:K7)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <f>2+1+1+1+2+2+1</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="32">
+        <v>4</v>
+      </c>
+      <c r="G8" s="32">
+        <v>14</v>
+      </c>
+      <c r="H8" s="32">
+        <v>8</v>
+      </c>
+      <c r="I8" s="32">
+        <f>1+8+3+2+2+2</f>
+        <v>18</v>
+      </c>
+      <c r="J8" s="32">
+        <v>10</v>
+      </c>
+      <c r="K8" s="38">
+        <f>1+1+1+1+1+1+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="L8" s="39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="37">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <f>2+2+1+1+2+2+2+2</f>
+        <v>14</v>
+      </c>
+      <c r="F9" s="32">
+        <v>4</v>
+      </c>
+      <c r="G9" s="32">
+        <f>1+ 6+1+1+3+1</f>
+        <v>13</v>
+      </c>
+      <c r="H9" s="32">
+        <v>9</v>
+      </c>
+      <c r="I9" s="32">
+        <f>1+10+1+1+4+3+3</f>
+        <v>23</v>
+      </c>
+      <c r="J9" s="32">
+        <v>11</v>
+      </c>
+      <c r="K9" s="38">
+        <f>1+3+1+1+1+1+3+2+1</f>
+        <v>14</v>
+      </c>
+      <c r="L9" s="39">
+        <f>SUM(D9:K9)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="37">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <f>2+2+1+1+2+2+2+1+1</f>
+        <v>14</v>
+      </c>
+      <c r="F10" s="32">
+        <v>4</v>
+      </c>
+      <c r="G10" s="32">
+        <f>1+6+1+4+1</f>
+        <v>13</v>
+      </c>
+      <c r="H10" s="32">
+        <v>6</v>
+      </c>
+      <c r="I10" s="32">
+        <f>6+1+4+2+2+1</f>
+        <v>16</v>
+      </c>
+      <c r="J10" s="32">
+        <v>7</v>
+      </c>
+      <c r="K10" s="38">
+        <f>1+2+1+2+1+1+2+1</f>
+        <v>11</v>
+      </c>
+      <c r="L10" s="39">
+        <f>SUM(D10:K10)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f>1+1+1+2+1+1+1+2+1</f>
+        <v>11</v>
+      </c>
+      <c r="F11" s="32">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32">
+        <f>1+2+1+5+2</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="32">
+        <v>8</v>
+      </c>
+      <c r="I11" s="32">
+        <f>1+2+1+1+4+3+1+1+1</f>
+        <v>15</v>
+      </c>
+      <c r="J11" s="32">
+        <v>9</v>
+      </c>
+      <c r="K11" s="38">
+        <f>1+2+1+2+1+2+2+1</f>
+        <v>12</v>
+      </c>
+      <c r="L11" s="39">
+        <f>SUM(D11:K11)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <f>2+2+1+1+2+2+2+2+1</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="32">
+        <v>4</v>
+      </c>
+      <c r="G12" s="32">
+        <f>1+5+1+4+2</f>
+        <v>13</v>
+      </c>
+      <c r="H12" s="32">
+        <f>2+3+4+1</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="32">
+        <f>1+9+1+1+3+3+1+2+1</f>
+        <v>22</v>
+      </c>
+      <c r="J12" s="32">
+        <v>9</v>
+      </c>
+      <c r="K12" s="38">
+        <f>1+1+2+1+3+1+2</f>
+        <v>11</v>
+      </c>
+      <c r="L12" s="39">
+        <f>SUM(D12:K12)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <f>2+2+1+1+2+2+1+1+1</f>
+        <v>13</v>
+      </c>
+      <c r="F13" s="32">
+        <v>4</v>
+      </c>
+      <c r="G13" s="32">
+        <f>1+2+1+4+2</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="32">
+        <f>2+1+4+1</f>
+        <v>8</v>
+      </c>
+      <c r="I13" s="32">
+        <f>1+8+1+1+3+3+1+3+1</f>
+        <v>22</v>
+      </c>
+      <c r="J13" s="32">
+        <v>8</v>
+      </c>
+      <c r="K13" s="38">
+        <f>1+2+1+2+1+1+2+1</f>
+        <v>11</v>
+      </c>
+      <c r="L13" s="39">
+        <f>SUM(D13:K13)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="37">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
+        <f>1+1+1+1+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="32">
+        <v>3</v>
+      </c>
+      <c r="G14" s="32">
+        <f>1 +6+4+2</f>
+        <v>13</v>
+      </c>
+      <c r="H14" s="32">
+        <v>7</v>
+      </c>
+      <c r="I14" s="32">
+        <v>11</v>
+      </c>
+      <c r="J14" s="32">
+        <v>5</v>
+      </c>
+      <c r="K14" s="38">
+        <v>6</v>
+      </c>
+      <c r="L14" s="39">
+        <f>SUM(D14:K14)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f>2+2+1+1+2+2+2+2+1</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="32">
+        <v>4</v>
+      </c>
+      <c r="G15" s="32">
+        <v>9</v>
+      </c>
+      <c r="H15" s="32">
+        <v>7</v>
+      </c>
+      <c r="I15" s="32">
+        <f>6+4+3+1+3+1+1</f>
+        <v>19</v>
+      </c>
+      <c r="J15" s="32">
+        <v>12</v>
+      </c>
+      <c r="K15" s="38">
+        <f>1+3+1+1+2+2+2</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="39">
+        <f>SUM(D15:K15)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <f>2+2+1+1+2+2+2+2+1</f>
+        <v>15</v>
+      </c>
+      <c r="F16" s="32">
+        <v>4</v>
+      </c>
+      <c r="G16" s="32">
+        <f>1+ 6+1+5+2</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="32">
+        <v>9</v>
+      </c>
+      <c r="I16" s="32">
+        <f>6+1+3+3+3</f>
+        <v>16</v>
+      </c>
+      <c r="J16" s="32">
+        <v>9</v>
+      </c>
+      <c r="K16" s="38">
+        <f>1+3+1+2+1+3+1+1</f>
+        <v>13</v>
+      </c>
+      <c r="L16" s="39">
+        <f>SUM(D16:K16)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>7</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="32">
+        <f>1+6+1+4+2</f>
+        <v>14</v>
+      </c>
+      <c r="H17" s="32">
+        <v>2</v>
+      </c>
+      <c r="I17" s="32">
+        <f xml:space="preserve">
+1+6+1+1+3+2+1+2</f>
+        <v>17</v>
+      </c>
+      <c r="J17" s="32">
+        <v>6</v>
+      </c>
+      <c r="K17" s="38">
+        <f>1+2+1+1+1+1+1+1</f>
+        <v>9</v>
+      </c>
+      <c r="L17" s="39">
+        <f>SUM(D17:K17)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>12</v>
+      </c>
+      <c r="F18" s="32">
+        <v>4</v>
+      </c>
+      <c r="G18" s="32">
+        <v>6</v>
+      </c>
+      <c r="H18" s="32">
+        <v>4</v>
+      </c>
+      <c r="I18" s="32">
+        <v>9</v>
+      </c>
+      <c r="J18" s="32">
+        <v>6</v>
+      </c>
+      <c r="K18" s="38">
+        <f>1+2+1+1+1+1+2+1</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="39">
+        <f>SUM(D18:K18)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="37">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f>1+1+1+1+1+1+1+1+1</f>
+        <v>9</v>
+      </c>
+      <c r="F19" s="32">
+        <v>4</v>
+      </c>
+      <c r="G19" s="32">
+        <v>15</v>
+      </c>
+      <c r="H19" s="32">
+        <v>10</v>
+      </c>
+      <c r="I19" s="32">
+        <v>5</v>
+      </c>
+      <c r="J19" s="32">
+        <v>6</v>
+      </c>
+      <c r="K19" s="38">
+        <v>2</v>
+      </c>
+      <c r="L19" s="39">
+        <f>SUM(D19:K19)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="37">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <f>2+1+1+2+1+2+2+1</f>
+        <v>12</v>
+      </c>
+      <c r="F20" s="32">
+        <v>4</v>
+      </c>
+      <c r="G20" s="32">
+        <f>1+6+1+5+2</f>
+        <v>15</v>
+      </c>
+      <c r="H20" s="32">
+        <v>10</v>
+      </c>
+      <c r="I20" s="32">
+        <f>1+8+1+2+2+1+2+1</f>
+        <v>18</v>
+      </c>
+      <c r="J20" s="32">
+        <v>7</v>
+      </c>
+      <c r="K20" s="38">
+        <f>1+1+2+1+1</f>
+        <v>6</v>
+      </c>
+      <c r="L20" s="39">
+        <f>SUM(D20:K20)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="37">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <v>15</v>
+      </c>
+      <c r="F21" s="32">
+        <v>4</v>
+      </c>
+      <c r="G21" s="32">
+        <f>1+6+1+4+1</f>
+        <v>13</v>
+      </c>
+      <c r="H21" s="32">
+        <v>9</v>
+      </c>
+      <c r="I21" s="32">
+        <f>1+10+1+1+3+2+1+2</f>
+        <v>21</v>
+      </c>
+      <c r="J21" s="32">
+        <v>10</v>
+      </c>
+      <c r="K21" s="38">
+        <f>1+1+1+1+1+2+1</f>
+        <v>8</v>
+      </c>
+      <c r="L21" s="39">
+        <f>SUM(D21:K21)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <f>2+2+1+1+2+2+2+2</f>
+        <v>14</v>
+      </c>
+      <c r="F22" s="32">
+        <v>4</v>
+      </c>
+      <c r="G22" s="32">
+        <f>1+6+1+4+1</f>
+        <v>13</v>
+      </c>
+      <c r="H22" s="32">
+        <f>2+3+1</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="32">
+        <f>2+1+2+1+3</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="32">
+        <v>8</v>
+      </c>
+      <c r="K22" s="38">
+        <v>3</v>
+      </c>
+      <c r="L22" s="39">
+        <f>SUM(D22:K22)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="37">
+        <v>1</v>
+      </c>
+      <c r="E23" s="32">
+        <f>2+2+2+2+1</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="32">
+        <v>2</v>
+      </c>
+      <c r="G23" s="32">
+        <v>5</v>
+      </c>
+      <c r="H23" s="32">
+        <v>5</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>3</v>
+      </c>
+      <c r="K23" s="38">
+        <v>5</v>
+      </c>
+      <c r="L23" s="39">
+        <f>SUM(D23:K23)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="37">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <f>1+1+1+1+2+2+2+1</f>
+        <v>11</v>
+      </c>
+      <c r="F24" s="32">
+        <v>4</v>
+      </c>
+      <c r="G24" s="32">
+        <f>1+6+1+4</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="32">
+        <v>5</v>
+      </c>
+      <c r="I24" s="32">
+        <f>1+8+1+1+3+3+1+2+1</f>
+        <v>21</v>
+      </c>
+      <c r="J24" s="32">
+        <v>11</v>
+      </c>
+      <c r="K24" s="38">
+        <f>1+2+1+1+1+2+1+2</f>
+        <v>11</v>
+      </c>
+      <c r="L24" s="39">
+        <f>SUM(D24:K24)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="37">
+        <v>1</v>
+      </c>
+      <c r="E25" s="32">
+        <f>2+1+1+1+2+2+1+2+1</f>
+        <v>13</v>
+      </c>
+      <c r="F25" s="32">
+        <v>4</v>
+      </c>
+      <c r="G25" s="32">
+        <v>7</v>
+      </c>
+      <c r="H25" s="32">
+        <v>4</v>
+      </c>
+      <c r="I25" s="32">
+        <v>5</v>
+      </c>
+      <c r="J25" s="32">
+        <v>3</v>
+      </c>
+      <c r="K25" s="38">
+        <f>1+2+1+1+1+1+2</f>
+        <v>9</v>
+      </c>
+      <c r="L25" s="39">
+        <f>SUM(D25:K25)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="37">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
+        <f>1+1+1+1+2+2+1+2+1</f>
+        <v>12</v>
+      </c>
+      <c r="F26" s="32">
+        <v>4</v>
+      </c>
+      <c r="G26" s="32">
+        <f>1+2+1+4+2</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="32">
+        <v>5</v>
+      </c>
+      <c r="I26" s="32">
+        <v>8</v>
+      </c>
+      <c r="J26" s="32">
+        <v>8</v>
+      </c>
+      <c r="K26" s="38">
+        <f>1+2+1+1+1+1+2+1</f>
+        <v>10</v>
+      </c>
+      <c r="L26" s="39">
+        <f>SUM(D26:K26)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="32">
+        <f>2+2+1+1+2+1+2+2+1</f>
+        <v>14</v>
+      </c>
+      <c r="F27" s="32">
+        <v>4</v>
+      </c>
+      <c r="G27" s="32">
+        <f>1+6+1+4+1</f>
+        <v>13</v>
+      </c>
+      <c r="H27" s="32">
+        <v>9</v>
+      </c>
+      <c r="I27" s="32">
+        <f>1+9+1+3+2+1+2+1</f>
+        <v>20</v>
+      </c>
+      <c r="J27" s="32">
+        <v>13</v>
+      </c>
+      <c r="K27" s="38">
+        <f>1+3+1+1+1+3+1+2</f>
+        <v>13</v>
+      </c>
+      <c r="L27" s="39">
+        <f>SUM(D27:K27)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="32">
+        <f>2+2+1+1+2+2+2+2+1</f>
+        <v>15</v>
+      </c>
+      <c r="F28" s="32">
+        <v>4</v>
+      </c>
+      <c r="G28" s="32">
+        <v>14</v>
+      </c>
+      <c r="H28" s="32">
+        <v>9</v>
+      </c>
+      <c r="I28" s="32">
+        <f>6+1+3+1+3+1</f>
+        <v>15</v>
+      </c>
+      <c r="J28" s="32">
+        <v>13</v>
+      </c>
+      <c r="K28" s="38">
+        <v>3</v>
+      </c>
+      <c r="L28" s="39">
+        <f>SUM(D28:K28)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="32">
+        <f>1+1+1+1+1+1+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="32">
+        <v>4</v>
+      </c>
+      <c r="G29" s="32">
+        <f>1+6+1+3+2</f>
+        <v>13</v>
+      </c>
+      <c r="H29" s="32">
+        <v>7</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="38">
+        <v>0</v>
+      </c>
+      <c r="L29" s="39">
+        <f>SUM(D29:K29)</f>
+        <v>33</v>
+      </c>
+      <c r="M29" s="27">
+        <f>1+15+4+15+10+25+15+15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="32">
+        <v>10</v>
+      </c>
+      <c r="F30" s="32">
+        <v>4</v>
+      </c>
+      <c r="G30" s="32">
+        <v>14</v>
+      </c>
+      <c r="H30" s="32">
+        <v>7</v>
+      </c>
+      <c r="I30" s="32">
+        <f>1+7+1+1+3+3+1+2+1</f>
+        <v>20</v>
+      </c>
+      <c r="J30" s="32">
+        <v>8</v>
+      </c>
+      <c r="K30" s="38">
+        <f>1+ 2+1+2+1+2+2</f>
+        <v>11</v>
+      </c>
+      <c r="L30" s="39">
+        <f>SUM(D30:K30)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="37">
+        <v>1</v>
+      </c>
+      <c r="E31" s="32">
+        <f>2+2+1+1+2+2+2+2+1</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="32">
+        <v>4</v>
+      </c>
+      <c r="G31" s="32">
+        <f>1+6+1+5+2</f>
+        <v>15</v>
+      </c>
+      <c r="H31" s="32">
+        <v>9</v>
+      </c>
+      <c r="I31" s="32">
+        <f>1+7+1+1+3+3+1+3</f>
+        <v>20</v>
+      </c>
+      <c r="J31" s="32">
+        <v>8</v>
+      </c>
+      <c r="K31" s="38">
+        <f>1+3+1+1+1+2+1+2</f>
+        <v>12</v>
+      </c>
+      <c r="L31" s="39">
+        <f>SUM(D31:K31)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
+      <c r="E32" s="32">
+        <f>2+2+2+2+2+2</f>
+        <v>12</v>
+      </c>
+      <c r="F32" s="32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="32">
+        <f>1+5+1+5+2</f>
+        <v>14</v>
+      </c>
+      <c r="H32" s="32">
+        <v>9</v>
+      </c>
+      <c r="I32" s="32">
+        <f>1+8+3+1+2+1+2+1</f>
+        <v>19</v>
+      </c>
+      <c r="J32" s="32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="38">
+        <f>1+3+1+2+1+2+1+2</f>
+        <v>13</v>
+      </c>
+      <c r="L32" s="39">
+        <f>SUM(D32:K32)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="37">
+        <v>1</v>
+      </c>
+      <c r="E33" s="32">
+        <f>2+1+1+1+2+2+1+1+1</f>
+        <v>12</v>
+      </c>
+      <c r="F33" s="32">
+        <v>4</v>
+      </c>
+      <c r="G33" s="32">
+        <f>1+2+1+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="H33" s="32">
+        <v>9</v>
+      </c>
+      <c r="I33" s="32">
+        <v>8</v>
+      </c>
+      <c r="J33" s="32">
+        <v>4</v>
+      </c>
+      <c r="K33" s="38">
+        <v>5</v>
+      </c>
+      <c r="L33" s="39">
+        <f>SUM(D33:K33)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="59">
+        <v>1</v>
+      </c>
+      <c r="E34" s="60">
+        <f>2+2+1+2+1+2+1</f>
+        <v>11</v>
+      </c>
+      <c r="F34" s="60">
+        <v>4</v>
+      </c>
+      <c r="G34" s="60">
+        <f>1+6+1+4+1</f>
+        <v>13</v>
+      </c>
+      <c r="H34" s="60">
+        <v>6</v>
+      </c>
+      <c r="I34" s="60">
+        <f>1+4+1+1+3+2</f>
+        <v>12</v>
+      </c>
+      <c r="J34" s="60">
+        <v>10</v>
+      </c>
+      <c r="K34" s="61">
+        <v>6</v>
+      </c>
+      <c r="L34" s="63">
+        <f>SUM(D34:K34)</f>
+        <v>63</v>
+      </c>
+      <c r="M34" s="27"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M34" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M34">
+      <sortCondition ref="A2:A34"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6305,8 +7799,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
